--- a/CoreFramework1/src/main/java/com/rupjit/automationqa/data/B suite.xlsx
+++ b/CoreFramework1/src/main/java/com/rupjit/automationqa/data/B suite.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="14925" windowHeight="5955"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Testcases" sheetId="1" r:id="rId1"/>
     <sheet name="TestCase_B1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:D3"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
-  <si>
-    <t>TCID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+  <si>
+    <t>TCName</t>
   </si>
   <si>
     <t>Description</t>
@@ -26,40 +27,43 @@
     <t>Runmode</t>
   </si>
   <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>TestCase B1</t>
+  </si>
+  <si>
+    <t>Description for TestCase B1</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pass/Fail</t>
+  </si>
+  <si>
+    <t>TestCase B2</t>
+  </si>
+  <si>
+    <t>Description for TestCase B2</t>
+  </si>
+  <si>
+    <t>DataB1_1</t>
+  </si>
+  <si>
+    <t>DataB1_2</t>
+  </si>
+  <si>
+    <t>DataB1_3</t>
+  </si>
+  <si>
+    <t>DataB1_4</t>
+  </si>
+  <si>
+    <t>DataB1_5</t>
+  </si>
+  <si>
     <t>Result</t>
-  </si>
-  <si>
-    <t>TestCase B1</t>
-  </si>
-  <si>
-    <t>Description for TestCase B1</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t>TestCase B2</t>
-  </si>
-  <si>
-    <t>Description for TestCase B2</t>
-  </si>
-  <si>
-    <t>DataB1_1</t>
-  </si>
-  <si>
-    <t>DataB1_2</t>
-  </si>
-  <si>
-    <t>DataB1_3</t>
-  </si>
-  <si>
-    <t>DataB1_4</t>
-  </si>
-  <si>
-    <t>DataB1_5</t>
   </si>
   <si>
     <t>Error</t>
@@ -71,32 +75,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -108,105 +96,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,6 +137,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -228,14 +218,21 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,13 +253,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,163 +385,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,17 +450,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,15 +470,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,11 +491,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,11 +513,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,151 +536,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,7 +1021,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1124,10 +1115,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/CoreFramework1/src/main/java/com/rupjit/automationqa/data/B suite.xlsx
+++ b/CoreFramework1/src/main/java/com/rupjit/automationqa/data/B suite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14925" windowHeight="5955"/>
+    <workbookView windowWidth="13980" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
   <si>
     <t>TCName</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Results</t>
   </si>
   <si>
-    <t>TestCase B1</t>
+    <t>TestCase_B1</t>
   </si>
   <si>
     <t>Description for TestCase B1</t>
@@ -39,15 +39,15 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Pass/Fail</t>
-  </si>
-  <si>
-    <t>TestCase B2</t>
+    <t>TestCase_B2</t>
   </si>
   <si>
     <t>Description for TestCase B2</t>
   </si>
   <si>
+    <t>n</t>
+  </si>
+  <si>
     <t>DataB1_1</t>
   </si>
   <si>
@@ -63,10 +63,61 @@
     <t>DataB1_5</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>dataB1_1_1</t>
+  </si>
+  <si>
+    <t>dataB1_1_2</t>
+  </si>
+  <si>
+    <t>dataB1_1_3</t>
+  </si>
+  <si>
+    <t>dataB1_1_4</t>
+  </si>
+  <si>
+    <t>dataB1_1_5</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>dataB1_2_1</t>
+  </si>
+  <si>
+    <t>dataB1_2_2</t>
+  </si>
+  <si>
+    <t>dataB1_2_3</t>
+  </si>
+  <si>
+    <t>dataB1_2_4</t>
+  </si>
+  <si>
+    <t>dataB1_2_5</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>dataB1_3_1</t>
+  </si>
+  <si>
+    <t>dataB1_3_2</t>
+  </si>
+  <si>
+    <t>dataB1_3_3</t>
+  </si>
+  <si>
+    <t>dataB1_3_4</t>
+  </si>
+  <si>
+    <t>dataB1_3_5</t>
   </si>
 </sst>
 </file>
@@ -89,6 +140,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -96,9 +155,83 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,9 +245,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,111 +255,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,49 +298,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,127 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,16 +511,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,15 +540,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -513,17 +555,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,8 +567,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +583,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,130 +619,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1021,14 +1072,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="12.7142857142857" customWidth="1"/>
-    <col min="2" max="2" width="44.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="10.7142857142857" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.7142857142857" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="44.1428571428571" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.7142857142857" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1045,7 +1097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1056,18 +1108,21 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="D3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1082,17 +1137,18 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="13.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="13.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="13.4285714285714" customWidth="1"/>
-    <col min="5" max="5" width="16.8571428571429" customWidth="1"/>
-    <col min="6" max="6" width="14.7142857142857" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="13.4285714285714" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="13.8571428571429" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="13.5714285714286" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.4285714285714" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.8571428571429" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.7142857142857" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.2578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1115,40 +1171,82 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
@@ -1158,7 +1256,9 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
@@ -1168,7 +1268,9 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
@@ -1178,7 +1280,9 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
@@ -1188,7 +1292,9 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
@@ -1198,7 +1304,9 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" s="2"/>
     </row>
   </sheetData>
